--- a/documents/03_ファイル構成一覧表_makwm.xlsx
+++ b/documents/03_ファイル構成一覧表_makwm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29016"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NextCloud\内部共有用\04_取引案件別\19_SEプラス\2024_Dojo\6月\PlusDojo6月作成ドキュメントテンプレート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="13_ncr:1_{0DE3A67F-EAA6-4199-8272-F4FAB37202CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BD5CBBB-A044-4590-A1B6-94224C5A4C33}"/>
+  <xr:revisionPtr revIDLastSave="324" documentId="13_ncr:1_{0DE3A67F-EAA6-4199-8272-F4FAB37202CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156CAE16-E752-4FF4-BEC1-08AF429151DC}"/>
   <bookViews>
     <workbookView xWindow="-10520" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="114">
   <si>
     <t>ステータス</t>
     <phoneticPr fontId="1"/>
@@ -352,9 +352,6 @@
     <t>全画面共通JavaScript。</t>
   </si>
   <si>
-    <t>手が空いた人</t>
-  </si>
-  <si>
     <t>HomeServlet.java</t>
   </si>
   <si>
@@ -461,6 +458,12 @@
   </si>
   <si>
     <t>check_questionsテーブルのデータ保持用クラス。</t>
+  </si>
+  <si>
+    <t>LogoutServlet.java</t>
+  </si>
+  <si>
+    <t>ログアウト処理用。</t>
   </si>
 </sst>
 </file>
@@ -685,7 +688,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1000,7 +1003,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1690,7 +1693,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="7" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -1705,10 +1708,10 @@
         <v>14</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1717,7 +1720,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="8"/>
       <c r="N26" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -1732,10 +1735,10 @@
         <v>19</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1744,7 +1747,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -1759,10 +1762,10 @@
         <v>31</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
@@ -1771,7 +1774,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -1786,10 +1789,10 @@
         <v>35</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
@@ -1798,7 +1801,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -1813,10 +1816,10 @@
         <v>39</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1825,7 +1828,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -1840,10 +1843,10 @@
         <v>43</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -1852,7 +1855,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -1867,10 +1870,10 @@
         <v>14</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -1879,7 +1882,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -1893,10 +1896,10 @@
         <v>19</v>
       </c>
       <c r="F33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
@@ -1905,7 +1908,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -1920,10 +1923,10 @@
         <v>31</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
@@ -1932,7 +1935,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -1946,10 +1949,10 @@
         <v>31</v>
       </c>
       <c r="F35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
@@ -1958,7 +1961,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -1973,10 +1976,10 @@
         <v>31</v>
       </c>
       <c r="F36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
@@ -1985,7 +1988,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -2000,10 +2003,10 @@
         <v>31</v>
       </c>
       <c r="F37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
@@ -2012,7 +2015,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -2027,10 +2030,10 @@
         <v>35</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
@@ -2039,7 +2042,7 @@
       <c r="L38" s="5"/>
       <c r="M38" s="8"/>
       <c r="N38" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -2054,10 +2057,10 @@
         <v>39</v>
       </c>
       <c r="F39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -2066,7 +2069,7 @@
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="3:14" s="4" customFormat="1" ht="15.75">
@@ -2081,10 +2084,10 @@
         <v>43</v>
       </c>
       <c r="F40" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -2093,7 +2096,7 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="3:14" ht="15.75">
@@ -2108,10 +2111,10 @@
         <v>19</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2133,10 +2136,10 @@
         <v>31</v>
       </c>
       <c r="F42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -2147,21 +2150,31 @@
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="3:14">
-      <c r="C43" s="1">
+      <c r="C43" s="5">
         <f>ROW()-2</f>
         <v>41</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="D43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="44" spans="3:14">
       <c r="C44" s="1">
@@ -2248,12 +2261,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2424,7 +2431,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2433,14 +2440,20 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}"/>
 </file>